--- a/proposal/dcache/plots/stat-open-scal.xlsx
+++ b/proposal/dcache/plots/stat-open-scal.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/dcache-optimization/papers/sosp15/plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/chiache-thesis/proposal/dcache/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -110,9 +113,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.275941335577328"/>
+          <c:x val="0.187156247700346"/>
           <c:y val="0.228655511811024"/>
-          <c:w val="0.618715152972291"/>
+          <c:w val="0.778761866215321"/>
           <c:h val="0.536844488188976"/>
         </c:manualLayout>
       </c:layout>
@@ -689,14 +692,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144632672"/>
-        <c:axId val="-2081306496"/>
+        <c:axId val="2108981488"/>
+        <c:axId val="2109713456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144632672"/>
+        <c:axId val="2108981488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12.0"/>
+          <c:max val="14.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -707,7 +711,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -717,7 +721,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="3200" b="1">
+                  <a:rPr lang="en-US" sz="2800" b="1">
                     <a:latin typeface="Times New Roman" charset="0"/>
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
@@ -741,7 +745,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -785,13 +789,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081306496"/>
+        <c:crossAx val="2109713456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081306496"/>
+        <c:axId val="2109713456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -819,7 +823,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -829,7 +833,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="3200" b="1" i="0">
+                  <a:rPr lang="en-US" sz="2800" b="1" i="0">
                     <a:latin typeface="Times New Roman" charset="0"/>
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
@@ -837,7 +841,7 @@
                   <a:t>stat/open</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="3200" b="1">
+                  <a:rPr lang="en-US" sz="2800" b="1">
                     <a:latin typeface="Times New Roman" charset="0"/>
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
@@ -851,8 +855,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0438970968323616"/>
-              <c:y val="0.11993268986538"/>
+              <c:x val="0.0111868055044521"/>
+              <c:y val="0.191550803581059"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -868,7 +872,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -911,7 +915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144632672"/>
+        <c:crossAx val="2108981488"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1569,10 +1573,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1598,12 +1602,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33893</cdr:x>
-      <cdr:y>0.01736</cdr:y>
+      <cdr:x>0.37631</cdr:x>
+      <cdr:y>0.19887</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.79389</cdr:x>
-      <cdr:y>0.12048</cdr:y>
+      <cdr:x>0.83127</cdr:x>
+      <cdr:y>0.30199</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1612,8 +1616,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2819415" y="68362"/>
-          <a:ext cx="3784585" cy="405983"/>
+          <a:off x="4090976" y="737478"/>
+          <a:ext cx="4945961" cy="382410"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1629,7 +1633,7 @@
               <a:ea typeface="Times New Roman" charset="0"/>
               <a:cs typeface="Times New Roman" charset="0"/>
             </a:rPr>
-            <a:t>(Unmodified)           (Optimized)</a:t>
+            <a:t>(Unmodified)                  (Optimized)</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>

--- a/proposal/dcache/plots/stat-open-scal.xlsx
+++ b/proposal/dcache/plots/stat-open-scal.xlsx
@@ -114,9 +114,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.187156247700346"/>
-          <c:y val="0.228655511811024"/>
+          <c:y val="0.136189731420559"/>
           <c:w val="0.778761866215321"/>
-          <c:h val="0.536844488188976"/>
+          <c:h val="0.588214324236868"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -726,12 +726,19 @@
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
                   </a:rPr>
-                  <a:t>Threads</a:t>
+                  <a:t># Threads in Parallel</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.369635826771653"/>
+              <c:y val="0.879469043253155"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -933,8 +940,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.283587666045561"/>
-          <c:y val="0.0950739141478283"/>
+          <c:x val="0.284755868717345"/>
+          <c:y val="0.0231560780929781"/>
           <c:w val="0.542326621386067"/>
           <c:h val="0.104973837947676"/>
         </c:manualLayout>
@@ -1603,11 +1610,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.37631</cdr:x>
-      <cdr:y>0.19887</cdr:y>
+      <cdr:y>0.10983</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.83127</cdr:x>
-      <cdr:y>0.30199</cdr:y>
+      <cdr:y>0.21295</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1616,7 +1623,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4090976" y="737478"/>
+          <a:off x="4090976" y="407278"/>
           <a:ext cx="4945961" cy="382410"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">

--- a/proposal/dcache/plots/stat-open-scal.xlsx
+++ b/proposal/dcache/plots/stat-open-scal.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/dcache-optimization/papers/sosp15/plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/chiache-thesis/proposal/dcache/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -110,10 +113,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.275941335577328"/>
-          <c:y val="0.228655511811024"/>
-          <c:w val="0.618715152972291"/>
-          <c:h val="0.536844488188976"/>
+          <c:x val="0.187156247700346"/>
+          <c:y val="0.136189731420559"/>
+          <c:w val="0.778761866215321"/>
+          <c:h val="0.588214324236868"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -689,14 +692,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144632672"/>
-        <c:axId val="-2081306496"/>
+        <c:axId val="2108981488"/>
+        <c:axId val="2109713456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144632672"/>
+        <c:axId val="2108981488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12.0"/>
+          <c:max val="14.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -707,7 +711,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -717,17 +721,24 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="3200" b="1">
+                  <a:rPr lang="en-US" sz="2800" b="1">
                     <a:latin typeface="Times New Roman" charset="0"/>
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
                   </a:rPr>
-                  <a:t>Threads</a:t>
+                  <a:t># Threads in Parallel</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.369635826771653"/>
+              <c:y val="0.879469043253155"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -741,7 +752,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -785,13 +796,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081306496"/>
+        <c:crossAx val="2109713456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081306496"/>
+        <c:axId val="2109713456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -819,7 +830,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -829,7 +840,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="3200" b="1" i="0">
+                  <a:rPr lang="en-US" sz="2800" b="1" i="0">
                     <a:latin typeface="Times New Roman" charset="0"/>
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
@@ -837,7 +848,7 @@
                   <a:t>stat/open</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="3200" b="1">
+                  <a:rPr lang="en-US" sz="2800" b="1">
                     <a:latin typeface="Times New Roman" charset="0"/>
                     <a:ea typeface="Times New Roman" charset="0"/>
                     <a:cs typeface="Times New Roman" charset="0"/>
@@ -851,8 +862,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0438970968323616"/>
-              <c:y val="0.11993268986538"/>
+              <c:x val="0.0111868055044521"/>
+              <c:y val="0.191550803581059"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -868,7 +879,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -911,7 +922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144632672"/>
+        <c:crossAx val="2108981488"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -929,8 +940,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.283587666045561"/>
-          <c:y val="0.0950739141478283"/>
+          <c:x val="0.284755868717345"/>
+          <c:y val="0.0231560780929781"/>
           <c:w val="0.542326621386067"/>
           <c:h val="0.104973837947676"/>
         </c:manualLayout>
@@ -1569,10 +1580,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1598,12 +1609,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33893</cdr:x>
-      <cdr:y>0.01736</cdr:y>
+      <cdr:x>0.37631</cdr:x>
+      <cdr:y>0.10983</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.79389</cdr:x>
-      <cdr:y>0.12048</cdr:y>
+      <cdr:x>0.83127</cdr:x>
+      <cdr:y>0.21295</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1612,8 +1623,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2819415" y="68362"/>
-          <a:ext cx="3784585" cy="405983"/>
+          <a:off x="4090976" y="407278"/>
+          <a:ext cx="4945961" cy="382410"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1629,7 +1640,7 @@
               <a:ea typeface="Times New Roman" charset="0"/>
               <a:cs typeface="Times New Roman" charset="0"/>
             </a:rPr>
-            <a:t>(Unmodified)           (Optimized)</a:t>
+            <a:t>(Unmodified)                  (Optimized)</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
